--- a/Plan/GameData/UnitDatabase_v02.xlsx
+++ b/Plan/GameData/UnitDatabase_v02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B831523F-46EF-4600-8B73-60532266CF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A8615-D71B-4410-A56E-F73E30F9F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="2590" windowWidth="23190" windowHeight="15370" xr2:uid="{21314470-D422-468B-BE64-C4DC22E52D45}"/>
+    <workbookView xWindow="-31810" yWindow="3410" windowWidth="23190" windowHeight="15370" xr2:uid="{21314470-D422-468B-BE64-C4DC22E52D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,18 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,6 +365,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -707,13 +707,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F960A5EC-BD8B-4F6B-993E-4E457E01E25A}">
   <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="9"/>
+    <col min="1" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
@@ -763,13 +763,13 @@
       <c r="AO1" s="11"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
@@ -780,22 +780,22 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="V2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="V2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9"/>
       <c r="AA2" s="12" t="s">
         <v>1</v>
       </c>
@@ -806,1401 +806,1401 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="14"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AG3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AH3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AL3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AN3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AO3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="7">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>500</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>120</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.3</v>
       </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="J5" s="4">
         <v>50</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="4">
         <v>80</v>
       </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>10</v>
-      </c>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
-      <c r="W5" s="7" t="s">
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>10</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="4">
         <v>500</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="4">
         <v>120</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="4">
         <v>0.3</v>
       </c>
-      <c r="AD5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="4">
         <v>50</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="4">
         <v>2</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="4">
         <v>80</v>
       </c>
-      <c r="AH5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="7">
+      <c r="AH5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>400</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>110</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
         <v>0.4</v>
       </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="J6" s="4">
         <v>40</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="4">
         <v>4</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="4">
         <v>70</v>
       </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>10</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>10</v>
-      </c>
-      <c r="V6" s="7">
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>10</v>
+      </c>
+      <c r="V6" s="3">
         <v>2</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="4">
         <v>400</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="4">
         <v>110</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="4">
         <v>0.4</v>
       </c>
-      <c r="AD6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="4">
         <v>40</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="4">
         <v>4</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="4">
         <v>70</v>
       </c>
-      <c r="AH6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="7">
+      <c r="AH6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>200</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>60</v>
       </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>20</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="4">
         <v>3</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="4">
         <v>30</v>
       </c>
-      <c r="M7" s="8">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>10</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>10</v>
-      </c>
-      <c r="V7" s="7">
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>10</v>
+      </c>
+      <c r="V7" s="3">
         <v>3</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="4">
         <v>200</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="4">
         <v>60</v>
       </c>
-      <c r="AC7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="8">
+      <c r="AC7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="4">
         <v>20</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="4">
         <v>3</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="4">
         <v>30</v>
       </c>
-      <c r="AH7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="7">
+      <c r="AH7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>130</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>80</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.8</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>10</v>
+      </c>
+      <c r="V8" s="3">
         <v>4</v>
       </c>
-      <c r="J8" s="8">
+      <c r="W8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>130</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>80</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AE8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="8">
+      <c r="AF8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="8">
+      <c r="AG8" s="4">
         <v>35</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>10</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>10</v>
-      </c>
-      <c r="V8" s="7">
-        <v>4</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>130</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>80</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>5</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>5</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>35</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="7">
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>150</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>70</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
         <v>1.2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="4">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4">
+        <v>45</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>10</v>
+      </c>
+      <c r="V9" s="3">
         <v>5</v>
       </c>
-      <c r="K9" s="8">
+      <c r="W9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>150</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>70</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="4">
         <v>4</v>
       </c>
-      <c r="L9" s="8">
+      <c r="AG9" s="4">
         <v>45</v>
       </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>10</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>10</v>
-      </c>
-      <c r="V9" s="7">
-        <v>5</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>150</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>70</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>4</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>45</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="7">
+      <c r="AH9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>250</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>120</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.5</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="4">
+        <v>30</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>50</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>10</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>10</v>
+      </c>
+      <c r="V10" s="3">
+        <v>6</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>120</v>
+      </c>
+      <c r="AC10" s="4">
         <v>1.2</v>
       </c>
-      <c r="J10" s="8">
+      <c r="AD10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AE10" s="4">
         <v>30</v>
       </c>
-      <c r="K10" s="8">
+      <c r="AF10" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="AG10" s="4">
         <v>50</v>
       </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>10</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>10</v>
-      </c>
-      <c r="V10" s="7">
-        <v>6</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>250</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>120</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>30</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>2</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>50</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="7">
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>300</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>100</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.5</v>
       </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="J11" s="4">
         <v>15</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="4">
         <v>1.5</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="4">
         <v>60</v>
       </c>
-      <c r="M11" s="8">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>10</v>
-      </c>
-      <c r="V11" s="7">
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>10</v>
+      </c>
+      <c r="V11" s="3">
         <v>7</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="4">
         <v>300</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="4">
         <v>100</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="4">
         <v>0.5</v>
       </c>
-      <c r="AD11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="8">
+      <c r="AE11" s="4">
         <v>15</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="4">
         <v>1.5</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AG11" s="4">
         <v>60</v>
       </c>
-      <c r="AH11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="7">
+      <c r="AH11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A12" s="7">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>200</v>
       </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7">
-        <v>10</v>
-      </c>
-      <c r="V12" s="7">
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>10</v>
+      </c>
+      <c r="V12" s="3">
         <v>8</v>
       </c>
-      <c r="W12" s="7" t="s">
+      <c r="W12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X12" s="7" t="s">
+      <c r="X12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Y12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="7" t="s">
+      <c r="Z12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="8">
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
         <v>200</v>
       </c>
-      <c r="AH12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="7">
-        <v>10</v>
-      </c>
-      <c r="AJ12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="7">
+      <c r="AH12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="V13" s="10">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="V13" s="6">
         <v>9</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="X13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Y13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="7" t="s">
+      <c r="Z13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA13" s="8">
+      <c r="AA13" s="4">
         <v>444</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AB13" s="4">
         <v>444</v>
       </c>
-      <c r="AC13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="8">
+      <c r="AC13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
         <v>44</v>
       </c>
-      <c r="AF13" s="8">
+      <c r="AF13" s="4">
         <v>1.5</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AG13" s="4">
         <v>4444</v>
       </c>
-      <c r="AH13" s="8">
+      <c r="AH13" s="4">
         <v>4</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AI13" s="3">
         <v>444</v>
       </c>
-      <c r="AJ13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="7">
+      <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
         <v>4444</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="9" t="s">
+      <c r="I17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="8">
+      <c r="A24" s="4">
         <v>500</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="4">
         <v>120</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="4">
         <v>50</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="4">
         <v>80</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Plan/GameData/UnitDatabase_v02.xlsx
+++ b/Plan/GameData/UnitDatabase_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\min\Projects\HotSix\Plan\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A8615-D71B-4410-A56E-F73E30F9F228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E97D8F-2BA4-43CF-9356-826AACA69763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31810" yWindow="3410" windowWidth="23190" windowHeight="15370" xr2:uid="{21314470-D422-468B-BE64-C4DC22E52D45}"/>
+    <workbookView xWindow="13350" yWindow="3440" windowWidth="23190" windowHeight="15370" xr2:uid="{21314470-D422-468B-BE64-C4DC22E52D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,13 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Armadilo</t>
-  </si>
-  <si>
-    <t>아르마딜로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chipmunk</t>
   </si>
   <si>
@@ -167,13 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pigeon</t>
-  </si>
-  <si>
-    <t>비둘기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reeper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +197,22 @@
   </si>
   <si>
     <t>m.range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F960A5EC-BD8B-4F6B-993E-4E457E01E25A}">
   <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -718,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -740,7 +742,7 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="V1" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
@@ -827,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -1080,31 +1082,31 @@
         <v>500</v>
       </c>
       <c r="G5" s="4">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
         <v>50</v>
       </c>
       <c r="K5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
         <v>80</v>
       </c>
       <c r="M5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P5" s="3">
         <v>0</v>
@@ -1113,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="3">
         <v>0</v>
@@ -1140,31 +1142,31 @@
         <v>500</v>
       </c>
       <c r="AB5" s="4">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="4">
         <v>1</v>
       </c>
       <c r="AD5" s="4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="4">
         <v>50</v>
       </c>
       <c r="AF5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="4">
         <v>80</v>
       </c>
       <c r="AH5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AJ5" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK5" s="3">
         <v>0</v>
@@ -1173,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN5" s="3">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -1214,19 +1216,19 @@
         <v>40</v>
       </c>
       <c r="K6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L6" s="4">
         <v>70</v>
       </c>
       <c r="M6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P6" s="3">
         <v>0</v>
@@ -1235,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
@@ -1247,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>19</v>
@@ -1274,19 +1276,19 @@
         <v>40</v>
       </c>
       <c r="AF6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="4">
         <v>70</v>
       </c>
       <c r="AH6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AJ6" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK6" s="3">
         <v>0</v>
@@ -1295,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN6" s="3">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -1345,10 +1347,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P7" s="3">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
@@ -1369,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>19</v>
@@ -1405,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="AI7" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AJ7" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK7" s="3">
         <v>0</v>
@@ -1417,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="3">
         <v>0</v>
@@ -1431,10 +1433,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -1443,34 +1445,34 @@
         <v>20</v>
       </c>
       <c r="F8" s="4">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G8" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H8" s="4">
         <v>4</v>
       </c>
       <c r="I8" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="3">
         <v>10</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -1479,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -1491,10 +1493,10 @@
         <v>4</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>19</v>
@@ -1503,34 +1505,34 @@
         <v>20</v>
       </c>
       <c r="AA8" s="4">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AB8" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC8" s="4">
         <v>4</v>
       </c>
       <c r="AD8" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AF8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AH8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="3">
         <v>10</v>
       </c>
       <c r="AJ8" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK8" s="3">
         <v>0</v>
@@ -1539,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN8" s="3">
         <v>0</v>
@@ -1553,10 +1555,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>19</v>
@@ -1577,22 +1579,22 @@
         <v>1.2</v>
       </c>
       <c r="J9" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="4">
         <v>45</v>
       </c>
       <c r="M9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="3">
         <v>10</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -1601,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>5</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>19</v>
@@ -1637,22 +1639,22 @@
         <v>1.2</v>
       </c>
       <c r="AE9" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="4">
         <v>45</v>
       </c>
       <c r="AH9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI9" s="3">
         <v>10</v>
       </c>
       <c r="AJ9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK9" s="3">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AM9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN9" s="3">
         <v>0</v>
@@ -1675,10 +1677,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -1687,34 +1689,34 @@
         <v>20</v>
       </c>
       <c r="F10" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G10" s="4">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="H10" s="4">
         <v>1.2</v>
       </c>
       <c r="I10" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="4">
         <v>50</v>
       </c>
       <c r="M10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="3">
         <v>10</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -1723,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -1735,10 +1737,10 @@
         <v>6</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>19</v>
@@ -1747,34 +1749,34 @@
         <v>20</v>
       </c>
       <c r="AA10" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AB10" s="4">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AC10" s="4">
         <v>1.2</v>
       </c>
       <c r="AD10" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AF10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="4">
         <v>50</v>
       </c>
       <c r="AH10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI10" s="3">
         <v>10</v>
       </c>
       <c r="AJ10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK10" s="3">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN10" s="3">
         <v>0</v>
@@ -1797,10 +1799,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
@@ -1812,31 +1814,31 @@
         <v>300</v>
       </c>
       <c r="G11" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K11" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L11" s="4">
         <v>60</v>
       </c>
       <c r="M11" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P11" s="3">
         <v>0</v>
@@ -1845,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
@@ -1857,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>19</v>
@@ -1872,31 +1874,31 @@
         <v>300</v>
       </c>
       <c r="AB11" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="4">
         <v>1</v>
       </c>
       <c r="AD11" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF11" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AG11" s="4">
         <v>60</v>
       </c>
       <c r="AH11" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI11" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AJ11" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK11" s="3">
         <v>0</v>
@@ -1905,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN11" s="3">
         <v>0</v>
@@ -1919,10 +1921,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -1931,34 +1933,34 @@
         <v>20</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M12" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1967,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1979,10 +1981,10 @@
         <v>8</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>19</v>
@@ -1991,34 +1993,34 @@
         <v>20</v>
       </c>
       <c r="AA12" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB12" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC12" s="4">
         <v>0</v>
       </c>
       <c r="AD12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12" s="4">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AH12" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI12" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AJ12" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK12" s="3">
         <v>0</v>
@@ -2027,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN12" s="3">
         <v>0</v>
@@ -2061,10 +2063,10 @@
         <v>9</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>19</v>
@@ -2129,18 +2131,18 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -2149,10 +2151,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>13</v>
@@ -2217,5 +2219,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>